--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地供应-导入.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地供应-导入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>{Form=2}</t>
   </si>
@@ -70,57 +70,6 @@
   </si>
   <si>
     <t>{Value=5}</t>
-  </si>
-  <si>
-    <t>分区土地供应情况表（亩）</t>
-  </si>
-  <si>
-    <t>面积</t>
-  </si>
-  <si>
-    <t>出让金</t>
-  </si>
-  <si>
-    <t>{Area=1}</t>
-  </si>
-  <si>
-    <t>{Value=1 Node=13}</t>
-  </si>
-  <si>
-    <t>{RateValue=1 Node=13}</t>
-  </si>
-  <si>
-    <t>{Value=1 Node=91}</t>
-  </si>
-  <si>
-    <t>{RateValue=1 Node=91}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Area=2}</t>
-  </si>
-  <si>
-    <t>{Area=3}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=10}</t>
-  </si>
-  <si>
-    <t>{Area=5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=11}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Area=12}</t>
-  </si>
-  <si>
-    <t>{Area=4}</t>
-  </si>
-  <si>
-    <t>{Area=6}</t>
   </si>
 </sst>
 </file>
@@ -129,8 +78,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -157,14 +106,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,31 +181,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,24 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,46 +235,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,187 +264,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,30 +463,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,9 +484,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,21 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -604,17 +564,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,10 +1056,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1305,231 +1254,12 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地供应-导入.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地供应-导入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="19005" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,60 +16,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
-  <si>
-    <t>{Form=2}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+  <si>
+    <t>建设用地供应 3</t>
   </si>
   <si>
     <t>建设用地供应（亩）</t>
   </si>
   <si>
-    <t>{Quarter}季度</t>
+    <t>{Quarter}</t>
+  </si>
+  <si>
+    <t>同比%</t>
+  </si>
+  <si>
+    <t>建设用地供应总量</t>
+  </si>
+  <si>
+    <t>{Value=1}</t>
+  </si>
+  <si>
+    <t>{RateValue=1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：新增建设用地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：房地产用地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            --商服用地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            --普通商品房用地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          工业仓储用地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          其他用地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：划拨面积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          出让面积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          -招拍挂出让面积</t>
+  </si>
+  <si>
+    <t>出让金（万元）</t>
+  </si>
+  <si>
+    <t>{Value=4}</t>
+  </si>
+  <si>
+    <t>分区土地供应情况表（亩）</t>
+  </si>
+  <si>
+    <t>面积</t>
   </si>
   <si>
     <t>{Rate}同比%</t>
   </si>
   <si>
-    <t>{Node=13}</t>
-  </si>
-  <si>
-    <t>{Value=1}</t>
-  </si>
-  <si>
-    <t>{RateValue=1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Node=14}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Node=15}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            --{Node=17}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            --{Node=18}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Node=16}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Node=87}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Node=88}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Node=89}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          -{Node=90}</t>
-  </si>
-  <si>
-    <t>{Node=91}</t>
-  </si>
-  <si>
-    <t>{Value=5}</t>
+    <t>出让金</t>
+  </si>
+  <si>
+    <t>市本级</t>
+  </si>
+  <si>
+    <t>{Value=4 Node=29}</t>
+  </si>
+  <si>
+    <t>{RateValue=1 Node=29}</t>
+  </si>
+  <si>
+    <t>其中：新城</t>
+  </si>
+  <si>
+    <t>产业集聚区</t>
+  </si>
+  <si>
+    <t>定海区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：金塘</t>
+  </si>
+  <si>
+    <t>普陀区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：六横</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          朱家尖</t>
+  </si>
+  <si>
+    <t>岱山县</t>
+  </si>
+  <si>
+    <t>嵊泗县</t>
   </si>
 </sst>
 </file>
@@ -82,19 +130,28 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0099FF"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -105,6 +162,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -112,54 +195,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,44 +286,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -219,6 +293,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -234,22 +315,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,31 +325,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,162 +517,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -462,7 +541,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color rgb="FF0099FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,11 +583,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,21 +619,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,15 +652,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,156 +672,174 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,6 +898,7 @@
   <colors>
     <mruColors>
       <color rgb="000000FF"/>
+      <color rgb="000099FF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1056,22 +1163,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="24" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,12 +1361,191 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" ht="22.5" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" ht="22.5" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" ht="22.5" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" ht="22.5" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" ht="22.5" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" ht="22.5" spans="1:6">
+      <c r="A22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" ht="22.5" spans="1:6">
+      <c r="A23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" ht="22.5" spans="1:6">
+      <c r="A24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" ht="22.5" spans="1:6">
+      <c r="A25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" ht="23.25" spans="1:6">
+      <c r="A26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:6">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
